--- a/src/main/resources/download/紧固件发布模板.xlsx
+++ b/src/main/resources/download/紧固件发布模板.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20325"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{BDC3B812-09ED-4F36-B7C1-BEF4DA099437}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22365" windowHeight="10875" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22365" windowHeight="10875" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -79,9 +78,6 @@
     <t>商品库存</t>
   </si>
   <si>
-    <t>商品货号</t>
-  </si>
-  <si>
     <t>仓库名称</t>
   </si>
   <si>
@@ -122,13 +118,17 @@
   </si>
   <si>
     <t>运费集合名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品编码</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -450,12 +450,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomLeft" activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -541,36 +541,36 @@
         <v>18</v>
       </c>
       <c r="T1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
         <v>25</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>26</v>
-      </c>
-      <c r="C2" t="s">
-        <v>27</v>
       </c>
       <c r="E2">
         <v>12</v>
@@ -591,13 +591,13 @@
         <v>9</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L2">
         <v>90.9</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N2">
         <v>80.8</v>
@@ -618,48 +618,48 @@
         <v>100</v>
       </c>
       <c r="U2" t="s">
+        <v>29</v>
+      </c>
+      <c r="V2" t="s">
         <v>30</v>
-      </c>
-      <c r="V2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.15">
       <c r="D3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
